--- a/datos/precios/Precio_Bolsa_Nacional_($kwh)_2013.xlsx
+++ b/datos/precios/Precio_Bolsa_Nacional_($kwh)_2013.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JetDrive/GitHub/ETVL-IPython/Taller/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="440" windowWidth="16140" windowHeight="10000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14244" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_($kwh).rd" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1451,6 +1443,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1745,21 +1740,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA370"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="H366" sqref="H366"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V351" workbookViewId="0">
+      <selection activeCell="AA370" sqref="AA370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="25" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="13.5" customWidth="1"/>
-    <col min="27" max="27" width="57.83203125" customWidth="1"/>
-    <col min="28" max="256" width="9.1640625" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" customWidth="1"/>
+    <col min="27" max="27" width="57.77734375" customWidth="1"/>
+    <col min="28" max="256" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1789,7 +1784,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1869,7 +1864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1948,7 @@
         <v>159.90898333333328</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2032,7 @@
         <v>190.48610866666669</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2121,7 +2116,7 @@
         <v>182.89274166666655</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2205,7 +2200,7 @@
         <v>187.60762199999996</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +2284,7 @@
         <v>178.16116300000007</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2373,7 +2368,7 @@
         <v>174.21387600000003</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -2457,7 +2452,7 @@
         <v>174.93546733333326</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -2541,7 +2536,7 @@
         <v>174.97894499999995</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2625,7 +2620,7 @@
         <v>152.05655433333331</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2709,7 +2704,7 @@
         <v>181.61804866666674</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>186.31985866666653</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2877,7 +2872,7 @@
         <v>184.85946199999989</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -2961,7 +2956,7 @@
         <v>188.51463966666665</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3045,7 +3040,7 @@
         <v>192.11612999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -3129,7 +3124,7 @@
         <v>194.21366466666674</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -3213,7 +3208,7 @@
         <v>192.60257433333334</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
@@ -3297,7 +3292,7 @@
         <v>189.65614933333325</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -3381,7 +3376,7 @@
         <v>191.1854956666667</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -3465,7 +3460,7 @@
         <v>187.98424666666662</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -3549,7 +3544,7 @@
         <v>191.17349000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -3633,7 +3628,7 @@
         <v>193.02573600000005</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3717,7 +3712,7 @@
         <v>183.29741133333326</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -3801,7 +3796,7 @@
         <v>183.53582200000005</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +3880,7 @@
         <v>190.32240666666669</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
@@ -3969,7 +3964,7 @@
         <v>200.09130866666661</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>53</v>
       </c>
@@ -4053,7 +4048,7 @@
         <v>186.02858433333338</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -4137,7 +4132,7 @@
         <v>181.0480836666666</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>189.73473166666668</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4305,7 +4300,7 @@
         <v>164.85034566666658</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4389,7 +4384,7 @@
         <v>184.58747600000004</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -4473,7 +4468,7 @@
         <v>206.11947866666659</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>59</v>
       </c>
@@ -4557,7 +4552,7 @@
         <v>204.85541699999996</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>218.21256300000002</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
@@ -4725,7 +4720,7 @@
         <v>231.22664100000011</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>240.78832166666663</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
@@ -4893,7 +4888,7 @@
         <v>214.58614533333329</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>65</v>
       </c>
@@ -4977,7 +4972,7 @@
         <v>208.9338226666666</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
@@ -5061,7 +5056,7 @@
         <v>220.31782066666668</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>67</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>198.60997899999995</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -5229,7 +5224,7 @@
         <v>197.88672899999995</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5308,7 @@
         <v>207.07031666666671</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -5397,7 +5392,7 @@
         <v>195.70288500000007</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -5481,7 +5476,7 @@
         <v>164.00263533333342</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -5565,7 +5560,7 @@
         <v>185.99532099999996</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -5649,7 +5644,7 @@
         <v>178.07855766666668</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -5733,7 +5728,7 @@
         <v>175.98097899999991</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>75</v>
       </c>
@@ -5817,7 +5812,7 @@
         <v>167.22205499999987</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>76</v>
       </c>
@@ -5901,7 +5896,7 @@
         <v>161.18430066666664</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>77</v>
       </c>
@@ -5985,7 +5980,7 @@
         <v>167.92232433333336</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>78</v>
       </c>
@@ -6069,7 +6064,7 @@
         <v>148.33982566666666</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
@@ -6153,7 +6148,7 @@
         <v>166.33928333333338</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
@@ -6237,7 +6232,7 @@
         <v>159.8104660000001</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -6321,7 +6316,7 @@
         <v>157.39195333333328</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -6405,7 +6400,7 @@
         <v>158.07733733333328</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -6489,7 +6484,7 @@
         <v>151.26042833333332</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>84</v>
       </c>
@@ -6573,7 +6568,7 @@
         <v>147.29312166666662</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>85</v>
       </c>
@@ -6657,7 +6652,7 @@
         <v>154.49623300000005</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>86</v>
       </c>
@@ -6741,7 +6736,7 @@
         <v>147.39482099999995</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>87</v>
       </c>
@@ -6825,7 +6820,7 @@
         <v>143.97891233333328</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>88</v>
       </c>
@@ -6909,7 +6904,7 @@
         <v>153.19752566666671</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>89</v>
       </c>
@@ -6993,7 +6988,7 @@
         <v>151.78972133333335</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>90</v>
       </c>
@@ -7077,7 +7072,7 @@
         <v>145.40035366666669</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>91</v>
       </c>
@@ -7161,7 +7156,7 @@
         <v>156.85782400000005</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>92</v>
       </c>
@@ -7245,7 +7240,7 @@
         <v>209.41787399999996</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -7329,7 +7324,7 @@
         <v>178.88139633333336</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>94</v>
       </c>
@@ -7413,7 +7408,7 @@
         <v>176.13329133333332</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
@@ -7497,7 +7492,7 @@
         <v>147.33545599999997</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>96</v>
       </c>
@@ -7581,7 +7576,7 @@
         <v>174.7742999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>97</v>
       </c>
@@ -7665,7 +7660,7 @@
         <v>171.46973000000006</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
@@ -7749,7 +7744,7 @@
         <v>167.06782300000006</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
@@ -7833,7 +7828,7 @@
         <v>152.76402533333334</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>100</v>
       </c>
@@ -7917,7 +7912,7 @@
         <v>142.22306599999999</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>101</v>
       </c>
@@ -8001,7 +7996,7 @@
         <v>149.42845966666667</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>102</v>
       </c>
@@ -8085,7 +8080,7 @@
         <v>140.80650366666669</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8169,7 +8164,7 @@
         <v>122.02772499999999</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>104</v>
       </c>
@@ -8253,7 +8248,7 @@
         <v>128.55511266666667</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>105</v>
       </c>
@@ -8337,7 +8332,7 @@
         <v>123.61670900000001</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>106</v>
       </c>
@@ -8421,7 +8416,7 @@
         <v>125.89848899999998</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>107</v>
       </c>
@@ -8505,7 +8500,7 @@
         <v>129.03774366666667</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>108</v>
       </c>
@@ -8589,7 +8584,7 @@
         <v>96.226594666666657</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -8673,7 +8668,7 @@
         <v>118.97385500000006</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>110</v>
       </c>
@@ -8757,7 +8752,7 @@
         <v>107.005848</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -8841,7 +8836,7 @@
         <v>81.701215000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -8925,7 +8920,7 @@
         <v>94.741685333333308</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>113</v>
       </c>
@@ -9009,7 +9004,7 @@
         <v>115.51376599999999</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>114</v>
       </c>
@@ -9093,7 +9088,7 @@
         <v>97.711877000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>115</v>
       </c>
@@ -9177,7 +9172,7 @@
         <v>99.617272</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>116</v>
       </c>
@@ -9261,7 +9256,7 @@
         <v>106.50956933333329</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
@@ -9345,7 +9340,7 @@
         <v>137.84670999999994</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>118</v>
       </c>
@@ -9429,7 +9424,7 @@
         <v>161.17271433333326</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>119</v>
       </c>
@@ -9513,7 +9508,7 @@
         <v>157.38822233333329</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>121</v>
       </c>
@@ -9597,7 +9592,7 @@
         <v>173.09451633333336</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>122</v>
       </c>
@@ -9681,7 +9676,7 @@
         <v>176.0406423333333</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>123</v>
       </c>
@@ -9765,7 +9760,7 @@
         <v>178.62059533333334</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -9849,7 +9844,7 @@
         <v>181.51200600000004</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>125</v>
       </c>
@@ -9933,7 +9928,7 @@
         <v>179.98036833333336</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>126</v>
       </c>
@@ -10017,7 +10012,7 @@
         <v>205.9430513333333</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>127</v>
       </c>
@@ -10101,7 +10096,7 @@
         <v>198.79797766666658</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>128</v>
       </c>
@@ -10185,7 +10180,7 @@
         <v>220.61244833333339</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>129</v>
       </c>
@@ -10269,7 +10264,7 @@
         <v>224.301637</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>130</v>
       </c>
@@ -10353,7 +10348,7 @@
         <v>242.10305733333337</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -10437,7 +10432,7 @@
         <v>275.46581766666668</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>132</v>
       </c>
@@ -10521,7 +10516,7 @@
         <v>259.43022433333334</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>133</v>
       </c>
@@ -10605,7 +10600,7 @@
         <v>299.24734300000011</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>134</v>
       </c>
@@ -10689,7 +10684,7 @@
         <v>359.72445899999997</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>135</v>
       </c>
@@ -10773,7 +10768,7 @@
         <v>394.27650466666682</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>136</v>
       </c>
@@ -10857,7 +10852,7 @@
         <v>398.87043366666666</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>137</v>
       </c>
@@ -10941,7 +10936,7 @@
         <v>391.22183066666656</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>138</v>
       </c>
@@ -11025,7 +11020,7 @@
         <v>341.09528633333338</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>139</v>
       </c>
@@ -11109,7 +11104,7 @@
         <v>356.90808766666646</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>140</v>
       </c>
@@ -11193,7 +11188,7 @@
         <v>233.33436399999994</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>141</v>
       </c>
@@ -11277,7 +11272,7 @@
         <v>191.39138700000004</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>142</v>
       </c>
@@ -11361,7 +11356,7 @@
         <v>152.80410666666668</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>143</v>
       </c>
@@ -11445,7 +11440,7 @@
         <v>143.79242933333333</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>144</v>
       </c>
@@ -11529,7 +11524,7 @@
         <v>148.48184666666674</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>145</v>
       </c>
@@ -11613,7 +11608,7 @@
         <v>163.17395066666663</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>146</v>
       </c>
@@ -11697,7 +11692,7 @@
         <v>162.43899533333334</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>147</v>
       </c>
@@ -11781,7 +11776,7 @@
         <v>160.06465433333324</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>148</v>
       </c>
@@ -11865,7 +11860,7 @@
         <v>160.1223576666666</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>149</v>
       </c>
@@ -11949,7 +11944,7 @@
         <v>164.48808533333326</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>150</v>
       </c>
@@ -12033,7 +12028,7 @@
         <v>152.42177366666672</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>151</v>
       </c>
@@ -12117,7 +12112,7 @@
         <v>153.99255533333329</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>152</v>
       </c>
@@ -12201,7 +12196,7 @@
         <v>164.32599200000007</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>153</v>
       </c>
@@ -12285,7 +12280,7 @@
         <v>166.17110399999996</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>154</v>
       </c>
@@ -12369,7 +12364,7 @@
         <v>164.93375233333325</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>155</v>
       </c>
@@ -12453,7 +12448,7 @@
         <v>160.4585883333333</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>156</v>
       </c>
@@ -12537,7 +12532,7 @@
         <v>147.73169966666663</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>157</v>
       </c>
@@ -12621,7 +12616,7 @@
         <v>159.31169266666672</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>158</v>
       </c>
@@ -12705,7 +12700,7 @@
         <v>151.5400046666667</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>159</v>
       </c>
@@ -12789,7 +12784,7 @@
         <v>154.71243300000006</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>160</v>
       </c>
@@ -12873,7 +12868,7 @@
         <v>173.30569166666672</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>161</v>
       </c>
@@ -12957,7 +12952,7 @@
         <v>153.07493233333335</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>162</v>
       </c>
@@ -13041,7 +13036,7 @@
         <v>159.58827433333337</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>163</v>
       </c>
@@ -13125,7 +13120,7 @@
         <v>169.16701766666668</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>164</v>
       </c>
@@ -13209,7 +13204,7 @@
         <v>181.27675666666667</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>165</v>
       </c>
@@ -13293,7 +13288,7 @@
         <v>167.56848500000007</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>166</v>
       </c>
@@ -13377,7 +13372,7 @@
         <v>155.11168599999999</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>167</v>
       </c>
@@ -13461,7 +13456,7 @@
         <v>151.11719133333341</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
@@ -13545,7 +13540,7 @@
         <v>137.62677200000005</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
@@ -13629,7 +13624,7 @@
         <v>139.45115366666661</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
@@ -13713,7 +13708,7 @@
         <v>132.28595433333336</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>171</v>
       </c>
@@ -13797,7 +13792,7 @@
         <v>136.83653566666669</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>172</v>
       </c>
@@ -13881,7 +13876,7 @@
         <v>108.38206533333334</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>173</v>
       </c>
@@ -13965,7 +13960,7 @@
         <v>121.52642633333335</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>174</v>
       </c>
@@ -14049,7 +14044,7 @@
         <v>116.9221946666667</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>175</v>
       </c>
@@ -14133,7 +14128,7 @@
         <v>54.544142999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>176</v>
       </c>
@@ -14217,7 +14212,7 @@
         <v>112.62520866666665</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>177</v>
       </c>
@@ -14301,7 +14296,7 @@
         <v>100.15418366666664</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>178</v>
       </c>
@@ -14385,7 +14380,7 @@
         <v>111.45440466666668</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>179</v>
       </c>
@@ -14469,7 +14464,7 @@
         <v>87.019678333333346</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>180</v>
       </c>
@@ -14553,7 +14548,7 @@
         <v>89.631354333333363</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>181</v>
       </c>
@@ -14637,7 +14632,7 @@
         <v>80.618353999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>182</v>
       </c>
@@ -14721,7 +14716,7 @@
         <v>108.12882866666662</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>183</v>
       </c>
@@ -14805,7 +14800,7 @@
         <v>115.95741500000001</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>184</v>
       </c>
@@ -14889,7 +14884,7 @@
         <v>153.68505399999992</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>185</v>
       </c>
@@ -14973,7 +14968,7 @@
         <v>132.98666333333338</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>186</v>
       </c>
@@ -15057,7 +15052,7 @@
         <v>131.01999499999997</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>187</v>
       </c>
@@ -15141,7 +15136,7 @@
         <v>132.37806033333331</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>188</v>
       </c>
@@ -15225,7 +15220,7 @@
         <v>124.19696899999998</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>189</v>
       </c>
@@ -15309,7 +15304,7 @@
         <v>129.83385766666663</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>190</v>
       </c>
@@ -15393,7 +15388,7 @@
         <v>138.1374753333333</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>191</v>
       </c>
@@ -15477,7 +15472,7 @@
         <v>131.84404433333336</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>192</v>
       </c>
@@ -15561,7 +15556,7 @@
         <v>152.79565066666675</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>193</v>
       </c>
@@ -15645,7 +15640,7 @@
         <v>158.98186333333331</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>194</v>
       </c>
@@ -15729,7 +15724,7 @@
         <v>137.31094466666664</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>195</v>
       </c>
@@ -15813,7 +15808,7 @@
         <v>139.69109766666665</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>196</v>
       </c>
@@ -15897,7 +15892,7 @@
         <v>134.88427066666668</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>197</v>
       </c>
@@ -15981,7 +15976,7 @@
         <v>128.37092099999998</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>198</v>
       </c>
@@ -16065,7 +16060,7 @@
         <v>136.24140033333339</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>199</v>
       </c>
@@ -16149,7 +16144,7 @@
         <v>122.64910700000003</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>200</v>
       </c>
@@ -16233,7 +16228,7 @@
         <v>138.43790266666667</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>201</v>
       </c>
@@ -16317,7 +16312,7 @@
         <v>146.90978199999992</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>202</v>
       </c>
@@ -16401,7 +16396,7 @@
         <v>145.84779466666669</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>203</v>
       </c>
@@ -16485,7 +16480,7 @@
         <v>153.86052933333337</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>204</v>
       </c>
@@ -16569,7 +16564,7 @@
         <v>176.69473500000001</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>205</v>
       </c>
@@ -16653,7 +16648,7 @@
         <v>198.55423133333332</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>206</v>
       </c>
@@ -16737,7 +16732,7 @@
         <v>191.82431299999993</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>207</v>
       </c>
@@ -16821,7 +16816,7 @@
         <v>183.96127033333335</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>208</v>
       </c>
@@ -16905,7 +16900,7 @@
         <v>182.155079</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>209</v>
       </c>
@@ -16989,7 +16984,7 @@
         <v>162.79949266666662</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>210</v>
       </c>
@@ -17073,7 +17068,7 @@
         <v>122.31362966666666</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>211</v>
       </c>
@@ -17157,7 +17152,7 @@
         <v>147.17623033333328</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>212</v>
       </c>
@@ -17241,7 +17236,7 @@
         <v>171.81586366666662</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>213</v>
       </c>
@@ -17325,7 +17320,7 @@
         <v>180.394498</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>214</v>
       </c>
@@ -17409,7 +17404,7 @@
         <v>180.02131933333328</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>215</v>
       </c>
@@ -17493,7 +17488,7 @@
         <v>192.79201566666674</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>216</v>
       </c>
@@ -17577,7 +17572,7 @@
         <v>217.09247400000004</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>217</v>
       </c>
@@ -17661,7 +17656,7 @@
         <v>248.72881300000006</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>218</v>
       </c>
@@ -17745,7 +17740,7 @@
         <v>308.69644766666676</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>219</v>
       </c>
@@ -17829,7 +17824,7 @@
         <v>340.76834133333324</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>220</v>
       </c>
@@ -17913,7 +17908,7 @@
         <v>329.26018433333343</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>221</v>
       </c>
@@ -17997,7 +17992,7 @@
         <v>331.51358433333354</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>222</v>
       </c>
@@ -18081,7 +18076,7 @@
         <v>290.44985233333335</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>223</v>
       </c>
@@ -18165,7 +18160,7 @@
         <v>202.67110700000001</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>224</v>
       </c>
@@ -18249,7 +18244,7 @@
         <v>200.37467733333327</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>225</v>
       </c>
@@ -18333,7 +18328,7 @@
         <v>225.59991833333336</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>226</v>
       </c>
@@ -18417,7 +18412,7 @@
         <v>195.57184833333338</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -18501,7 +18496,7 @@
         <v>192.91953433333342</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>228</v>
       </c>
@@ -18585,7 +18580,7 @@
         <v>221.74838833333328</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>229</v>
       </c>
@@ -18669,7 +18664,7 @@
         <v>198.28332333333333</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>230</v>
       </c>
@@ -18753,7 +18748,7 @@
         <v>185.61488433333341</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
@@ -18837,7 +18832,7 @@
         <v>186.27020433333328</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>232</v>
       </c>
@@ -18921,7 +18916,7 @@
         <v>224.46189900000002</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
@@ -19005,7 +19000,7 @@
         <v>219.06990900000002</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>234</v>
       </c>
@@ -19089,7 +19084,7 @@
         <v>243.96240500000002</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>235</v>
       </c>
@@ -19173,7 +19168,7 @@
         <v>247.98094266666678</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>236</v>
       </c>
@@ -19257,7 +19252,7 @@
         <v>237.76199133333338</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>237</v>
       </c>
@@ -19341,7 +19336,7 @@
         <v>280.85649633333321</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
@@ -19425,7 +19420,7 @@
         <v>306.68667733333342</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>239</v>
       </c>
@@ -19509,7 +19504,7 @@
         <v>242.47594466666669</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>240</v>
       </c>
@@ -19593,7 +19588,7 @@
         <v>226.42104833333337</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>241</v>
       </c>
@@ -19677,7 +19672,7 @@
         <v>218.90672633333338</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>242</v>
       </c>
@@ -19761,7 +19756,7 @@
         <v>229.41322466666657</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
@@ -19845,7 +19840,7 @@
         <v>199.50724133333335</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>244</v>
       </c>
@@ -19929,7 +19924,7 @@
         <v>188.78990633333339</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>245</v>
       </c>
@@ -20013,7 +20008,7 @@
         <v>173.90794000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>246</v>
       </c>
@@ -20097,7 +20092,7 @@
         <v>165.06645533333332</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>247</v>
       </c>
@@ -20181,7 +20176,7 @@
         <v>153.59600733333329</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>248</v>
       </c>
@@ -20265,7 +20260,7 @@
         <v>154.2585253333333</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>249</v>
       </c>
@@ -20349,7 +20344,7 @@
         <v>188.6671083333334</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>250</v>
       </c>
@@ -20433,7 +20428,7 @@
         <v>188.90392366666671</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>251</v>
       </c>
@@ -20517,7 +20512,7 @@
         <v>189.60608299999998</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>252</v>
       </c>
@@ -20601,7 +20596,7 @@
         <v>177.05501699999999</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>253</v>
       </c>
@@ -20685,7 +20680,7 @@
         <v>163.39788566666664</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>254</v>
       </c>
@@ -20769,7 +20764,7 @@
         <v>141.43410433333329</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>255</v>
       </c>
@@ -20853,7 +20848,7 @@
         <v>139.71783233333332</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>256</v>
       </c>
@@ -20937,7 +20932,7 @@
         <v>134.77656266666668</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>257</v>
       </c>
@@ -21021,7 +21016,7 @@
         <v>157.76930000000004</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>258</v>
       </c>
@@ -21105,7 +21100,7 @@
         <v>163.28822966666661</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>259</v>
       </c>
@@ -21189,7 +21184,7 @@
         <v>137.61875333333333</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>260</v>
       </c>
@@ -21273,7 +21268,7 @@
         <v>135.68462566666665</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>261</v>
       </c>
@@ -21357,7 +21352,7 @@
         <v>138.47129633333333</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>262</v>
       </c>
@@ -21441,7 +21436,7 @@
         <v>120.92453366666662</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>263</v>
       </c>
@@ -21525,7 +21520,7 @@
         <v>123.40738400000004</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>264</v>
       </c>
@@ -21609,7 +21604,7 @@
         <v>137.52555133333337</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>265</v>
       </c>
@@ -21693,7 +21688,7 @@
         <v>131.73533899999998</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>266</v>
       </c>
@@ -21777,7 +21772,7 @@
         <v>116.57821733333334</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>267</v>
       </c>
@@ -21861,7 +21856,7 @@
         <v>129.47686499999995</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
@@ -21945,7 +21940,7 @@
         <v>106.59983633333333</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>269</v>
       </c>
@@ -22029,7 +22024,7 @@
         <v>104.63007400000002</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>270</v>
       </c>
@@ -22113,7 +22108,7 @@
         <v>93.424751000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>271</v>
       </c>
@@ -22197,7 +22192,7 @@
         <v>134.17772066666669</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>272</v>
       </c>
@@ -22281,7 +22276,7 @@
         <v>147.64029066666671</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>273</v>
       </c>
@@ -22365,7 +22360,7 @@
         <v>139.15017800000001</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>275</v>
       </c>
@@ -22449,7 +22444,7 @@
         <v>160.23132500000008</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>276</v>
       </c>
@@ -22533,7 +22528,7 @@
         <v>147.02651200000005</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>277</v>
       </c>
@@ -22617,7 +22612,7 @@
         <v>143.87482766666662</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>278</v>
       </c>
@@ -22701,7 +22696,7 @@
         <v>138.85902899999996</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>279</v>
       </c>
@@ -22785,7 +22780,7 @@
         <v>133.06373700000003</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>280</v>
       </c>
@@ -22869,7 +22864,7 @@
         <v>120.11854933333332</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>281</v>
       </c>
@@ -22953,7 +22948,7 @@
         <v>104.04479600000002</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>282</v>
       </c>
@@ -23037,7 +23032,7 @@
         <v>134.87528566666668</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>283</v>
       </c>
@@ -23121,7 +23116,7 @@
         <v>143.5156136666667</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>284</v>
       </c>
@@ -23205,7 +23200,7 @@
         <v>149.85392599999992</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>285</v>
       </c>
@@ -23289,7 +23284,7 @@
         <v>144.53348100000008</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>286</v>
       </c>
@@ -23373,7 +23368,7 @@
         <v>157.30021366666668</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>287</v>
       </c>
@@ -23457,7 +23452,7 @@
         <v>152.2252753333334</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>288</v>
       </c>
@@ -23541,7 +23536,7 @@
         <v>138.6145773333333</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>289</v>
       </c>
@@ -23625,7 +23620,7 @@
         <v>146.10017666666664</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>290</v>
       </c>
@@ -23709,7 +23704,7 @@
         <v>155.75400299999993</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>291</v>
       </c>
@@ -23793,7 +23788,7 @@
         <v>159.727508</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>292</v>
       </c>
@@ -23877,7 +23872,7 @@
         <v>154.16330166666665</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>293</v>
       </c>
@@ -23961,7 +23956,7 @@
         <v>135.88042899999999</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>294</v>
       </c>
@@ -24045,7 +24040,7 @@
         <v>119.15598099999994</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>295</v>
       </c>
@@ -24129,7 +24124,7 @@
         <v>118.06233299999998</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>296</v>
       </c>
@@ -24213,7 +24208,7 @@
         <v>138.10767366666664</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>297</v>
       </c>
@@ -24297,7 +24292,7 @@
         <v>167.08194466666666</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>298</v>
       </c>
@@ -24381,7 +24376,7 @@
         <v>162.85100366666668</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>299</v>
       </c>
@@ -24465,7 +24460,7 @@
         <v>158.36835433333331</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>300</v>
       </c>
@@ -24549,7 +24544,7 @@
         <v>152.20806733333339</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>301</v>
       </c>
@@ -24633,7 +24628,7 @@
         <v>152.44670766666667</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>302</v>
       </c>
@@ -24717,7 +24712,7 @@
         <v>150.68503433333331</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>303</v>
       </c>
@@ -24801,7 +24796,7 @@
         <v>148.2973026666667</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>304</v>
       </c>
@@ -24885,7 +24880,7 @@
         <v>147.63699433333338</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>306</v>
       </c>
@@ -24969,7 +24964,7 @@
         <v>148.92528366666664</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>307</v>
       </c>
@@ -25053,7 +25048,7 @@
         <v>170.7640753333333</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>308</v>
       </c>
@@ -25137,7 +25132,7 @@
         <v>156.35826966666659</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>309</v>
       </c>
@@ -25221,7 +25216,7 @@
         <v>153.77834133333329</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>310</v>
       </c>
@@ -25305,7 +25300,7 @@
         <v>122.81125000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>311</v>
       </c>
@@ -25389,7 +25384,7 @@
         <v>172.22878200000005</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>312</v>
       </c>
@@ -25473,7 +25468,7 @@
         <v>169.37187199999997</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>313</v>
       </c>
@@ -25557,7 +25552,7 @@
         <v>176.52889466666662</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>314</v>
       </c>
@@ -25641,7 +25636,7 @@
         <v>163.81670066666675</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>315</v>
       </c>
@@ -25725,7 +25720,7 @@
         <v>163.70701966666664</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>316</v>
       </c>
@@ -25809,7 +25804,7 @@
         <v>171.03372833333336</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>317</v>
       </c>
@@ -25893,7 +25888,7 @@
         <v>173.36619733333339</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>318</v>
       </c>
@@ -25977,7 +25972,7 @@
         <v>180.53926733333336</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>319</v>
       </c>
@@ -26061,7 +26056,7 @@
         <v>176.89198433333331</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>320</v>
       </c>
@@ -26145,7 +26140,7 @@
         <v>194.64163233333338</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>321</v>
       </c>
@@ -26229,7 +26224,7 @@
         <v>190.77662766666654</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>322</v>
       </c>
@@ -26313,7 +26308,7 @@
         <v>186.6235313333334</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>323</v>
       </c>
@@ -26397,7 +26392,7 @@
         <v>184.95629799999992</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>324</v>
       </c>
@@ -26481,7 +26476,7 @@
         <v>202.00450033333331</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>325</v>
       </c>
@@ -26565,7 +26560,7 @@
         <v>200.85500033333335</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>326</v>
       </c>
@@ -26649,7 +26644,7 @@
         <v>259.27210466666662</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>327</v>
       </c>
@@ -26733,7 +26728,7 @@
         <v>263.70613199999997</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>328</v>
       </c>
@@ -26817,7 +26812,7 @@
         <v>265.07476066666675</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>329</v>
       </c>
@@ -26901,7 +26896,7 @@
         <v>269.51173</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>330</v>
       </c>
@@ -26985,7 +26980,7 @@
         <v>276.27907599999998</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>331</v>
       </c>
@@ -27069,7 +27064,7 @@
         <v>260.44735866666662</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>332</v>
       </c>
@@ -27153,7 +27148,7 @@
         <v>291.9215103333334</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>333</v>
       </c>
@@ -27237,7 +27232,7 @@
         <v>309.71179233333322</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>334</v>
       </c>
@@ -27321,7 +27316,7 @@
         <v>383.81239633333342</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>335</v>
       </c>
@@ -27405,7 +27400,7 @@
         <v>382.73515966666679</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>336</v>
       </c>
@@ -27489,7 +27484,7 @@
         <v>420.39825933333344</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>337</v>
       </c>
@@ -27573,7 +27568,7 @@
         <v>350.46441033333326</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>338</v>
       </c>
@@ -27657,7 +27652,7 @@
         <v>277.84784066666674</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>339</v>
       </c>
@@ -27741,7 +27736,7 @@
         <v>394.77117700000025</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>340</v>
       </c>
@@ -27825,7 +27820,7 @@
         <v>331.43141966666661</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>341</v>
       </c>
@@ -27909,7 +27904,7 @@
         <v>294.1721813333333</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>342</v>
       </c>
@@ -27993,7 +27988,7 @@
         <v>229.56075933333332</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>343</v>
       </c>
@@ -28077,7 +28072,7 @@
         <v>190.95697066666662</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>344</v>
       </c>
@@ -28161,7 +28156,7 @@
         <v>169.14672599999997</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>345</v>
       </c>
@@ -28245,7 +28240,7 @@
         <v>156.58082266666662</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>346</v>
       </c>
@@ -28329,7 +28324,7 @@
         <v>178.36597333333341</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>347</v>
       </c>
@@ -28413,7 +28408,7 @@
         <v>192.113843</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>348</v>
       </c>
@@ -28497,7 +28492,7 @@
         <v>183.97817433333333</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>349</v>
       </c>
@@ -28581,7 +28576,7 @@
         <v>169.268789</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>350</v>
       </c>
@@ -28665,7 +28660,7 @@
         <v>163.415288</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>351</v>
       </c>
@@ -28749,7 +28744,7 @@
         <v>155.13018599999998</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>352</v>
       </c>
@@ -28833,7 +28828,7 @@
         <v>167.53685966666669</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>353</v>
       </c>
@@ -28917,7 +28912,7 @@
         <v>167.52864566666668</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>354</v>
       </c>
@@ -29001,7 +28996,7 @@
         <v>175.67329866666671</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>355</v>
       </c>
@@ -29085,7 +29080,7 @@
         <v>173.75499599999992</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>356</v>
       </c>
@@ -29169,7 +29164,7 @@
         <v>178.87751266666669</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>357</v>
       </c>
@@ -29253,7 +29248,7 @@
         <v>174.49957966666662</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>358</v>
       </c>
@@ -29337,7 +29332,7 @@
         <v>166.66564566666665</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>359</v>
       </c>
@@ -29421,7 +29416,7 @@
         <v>169.43748899999997</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>360</v>
       </c>
@@ -29505,7 +29500,7 @@
         <v>170.80035333333331</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>361</v>
       </c>
@@ -29589,7 +29584,7 @@
         <v>172.34368833333329</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>362</v>
       </c>
@@ -29673,7 +29668,7 @@
         <v>153.54923966666669</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>363</v>
       </c>
@@ -29757,7 +29752,7 @@
         <v>175.61470533333332</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>364</v>
       </c>
@@ -29841,7 +29836,7 @@
         <v>176.97070199999996</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>365</v>
       </c>
@@ -29925,7 +29920,7 @@
         <v>230.70961799999995</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>366</v>
       </c>
@@ -30009,7 +30004,7 @@
         <v>183.94701366666672</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>367</v>
       </c>
@@ -30093,7 +30088,7 @@
         <v>208.31518366666668</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>368</v>
       </c>
@@ -30177,7 +30172,7 @@
         <v>172.02181933333341</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>369</v>
       </c>
@@ -30261,7 +30256,7 @@
         <v>168.59210433333337</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>370</v>
       </c>
@@ -30345,7 +30340,7 @@
         <v>152.73425733333332</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>371</v>
       </c>
@@ -30429,7 +30424,7 @@
         <v>159.68284833333334</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>372</v>
       </c>
@@ -30513,7 +30508,7 @@
         <v>179.0157663333334</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>373</v>
       </c>
@@ -30597,7 +30592,7 @@
         <v>173.56249666666665</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>374</v>
       </c>
@@ -30681,7 +30676,7 @@
         <v>189.75772066666664</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>375</v>
       </c>
@@ -30765,7 +30760,7 @@
         <v>182.32834366666668</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>376</v>
       </c>
@@ -30849,7 +30844,7 @@
         <v>178.19948966666666</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>377</v>
       </c>
@@ -30933,7 +30928,7 @@
         <v>169.2945776666667</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>378</v>
       </c>
@@ -31017,7 +31012,7 @@
         <v>154.59092100000004</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>379</v>
       </c>
@@ -31101,7 +31096,7 @@
         <v>173.03156233333331</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>380</v>
       </c>
@@ -31185,7 +31180,7 @@
         <v>178.73422600000001</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>381</v>
       </c>
@@ -31269,7 +31264,7 @@
         <v>180.12804733333337</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>382</v>
       </c>
@@ -31353,7 +31348,7 @@
         <v>187.18222866666665</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>383</v>
       </c>
@@ -31437,7 +31432,7 @@
         <v>193.1047573333334</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>384</v>
       </c>
@@ -31521,7 +31516,7 @@
         <v>173.182109</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>385</v>
       </c>
@@ -31605,7 +31600,7 @@
         <v>164.87230399999996</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>386</v>
       </c>
@@ -31689,7 +31684,7 @@
         <v>164.39548133333327</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>387</v>
       </c>
@@ -31773,7 +31768,7 @@
         <v>166.73431533333337</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>388</v>
       </c>
@@ -31855,7 +31850,7 @@
         <v>159.49505160869566</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>389</v>
       </c>
@@ -31939,7 +31934,7 @@
         <v>152.96975699999996</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>390</v>
       </c>
@@ -32019,7 +32014,7 @@
         <v>104.60053172727271</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>391</v>
       </c>
@@ -32103,7 +32098,7 @@
         <v>110.98399933333332</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>392</v>
       </c>
@@ -32187,7 +32182,7 @@
         <v>102.97215566666669</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>393</v>
       </c>
@@ -32271,7 +32266,7 @@
         <v>109.20848466666668</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>394</v>
       </c>
@@ -32353,7 +32348,7 @@
         <v>153.04269039130432</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>395</v>
       </c>
@@ -32437,7 +32432,7 @@
         <v>165.54823366666673</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>396</v>
       </c>
@@ -32521,12 +32516,9 @@
         <v>175.19409566666675</v>
       </c>
     </row>
-    <row r="369" spans="27:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" spans="27:27" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AA370" s="6">
-        <f>AVERAGE(AA4:AA368)</f>
-        <v>177.35755737642191</v>
-      </c>
+    <row r="369" spans="27:27" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="27:27" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA370" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -32542,24 +32534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010081F15821DEA74440826E0ABE6ED0431E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="7e9496f45e65ed9a2f15ea6e66860ba1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1053b607-01f4-49d3-996a-42706195cb59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65b945c2a5fc5063e2f35c66e1076b14" ns2:_="">
     <xsd:import namespace="1053b607-01f4-49d3-996a-42706195cb59"/>
@@ -32695,10 +32669,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <M_x00e9_trica xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+    <Descripci_x00f3_n_x0020_Contenido xmlns="1053b607-01f4-49d3-996a-42706195cb59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A9A8-D6CA-4C8D-B9E6-B9541B2D8C8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB913A19-F32A-4F2C-92A5-5A41F7D91F5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32714,19 +32716,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB913A19-F32A-4F2C-92A5-5A41F7D91F5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A9A8-D6CA-4C8D-B9E6-B9541B2D8C8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1053b607-01f4-49d3-996a-42706195cb59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>